--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value889.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value889.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.377984708542073</v>
+        <v>3.253638744354248</v>
       </c>
       <c r="B1">
-        <v>2.399522327811749</v>
+        <v>2.351215124130249</v>
       </c>
       <c r="C1">
-        <v>2.888011515681803</v>
+        <v>1.738563060760498</v>
       </c>
       <c r="D1">
-        <v>3.325272937226516</v>
+        <v>1.620709657669067</v>
       </c>
       <c r="E1">
-        <v>1.715560276054227</v>
+        <v>1.569837093353271</v>
       </c>
     </row>
   </sheetData>
